--- a/item_templates.xlsx
+++ b/item_templates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Desktop/Work Projects/POD-Item-Template-Creator-Rev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F8CDC1-7DA3-4B46-A183-3414F18A6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE547F5-1D8B-FB47-9613-A7520C97304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -128,19 +128,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -189,28 +198,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -523,7 +594,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -533,66 +604,76 @@
     <col min="3" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>234</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>156</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>318</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>LEN(B2) &gt; 58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G2 I2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(MATCH(C2, INDIRECT(C2 &amp; ":" &amp; C2), 0))=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{2FAAF81F-3706-2447-B79C-81E00ED9987D}">
       <formula1>Paper</formula1>
@@ -622,60 +703,60 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/item_templates.xlsx
+++ b/item_templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Desktop/Work Projects/POD-Item-Template-Creator-Rev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE547F5-1D8B-FB47-9613-A7520C97304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA405B5-3A62-8744-914E-A539CD324B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Premium Colour 90 gsm</t>
   </si>
   <si>
-    <t>Mechanical Creamy 70 gsm</t>
-  </si>
-  <si>
     <t>Limp</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>REPLACE THE DATA IN ALL THE COLUMNS - LEAVE THE SPINE SIZE EMPTY</t>
+  </si>
+  <si>
+    <t>Enso 70 gsm</t>
   </si>
 </sst>
 </file>
@@ -222,14 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -247,34 +240,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -593,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>234</v>
@@ -654,23 +624,23 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3">
         <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>LEN(B2) &gt; 58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G2 I2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISNUMBER(MATCH(C2, INDIRECT(C2 &amp; ":" &amp; C2), 0))=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -694,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCB497C-4E44-3041-983F-0AB88C91BDB0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -719,10 +689,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -757,7 +727,7 @@
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/item_templates.xlsx
+++ b/item_templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Desktop/Work Projects/POD-Item-Template-Creator-Rev4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Dev/POD-Item-Template-Creator-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA405B5-3A62-8744-914E-A539CD324B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688D460-F4E7-0348-81C4-5E27D4E58045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -24,24 +24,11 @@
     <definedName name="Volume">Data!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>9781399183666</t>
   </si>
@@ -113,6 +100,21 @@
   </si>
   <si>
     <t>Enso 70 gsm</t>
+  </si>
+  <si>
+    <t>Holmen Bulky 52 gsm</t>
+  </si>
+  <si>
+    <t>Holmen Book 55 gsm</t>
+  </si>
+  <si>
+    <t>Holmen Cream 65 gsm</t>
+  </si>
+  <si>
+    <t>Holmen Book 52 gsm</t>
+  </si>
+  <si>
+    <t>No Lamination</t>
   </si>
 </sst>
 </file>
@@ -198,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -218,25 +220,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -265,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -644,33 +635,46 @@
       <formula>ISNUMBER(MATCH(C2, INDIRECT(C2 &amp; ":" &amp; C2), 0))=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{2FAAF81F-3706-2447-B79C-81E00ED9987D}">
-      <formula1>Paper</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{22F20FEA-F8A1-4240-B419-C3CB0AB26714}">
       <formula1>Binding</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{F9E8783D-F5A6-2142-A1A3-4FEE5420CA95}">
-      <formula1>Lamination</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FAAF81F-3706-2447-B79C-81E00ED9987D}">
+          <x14:formula1>
+            <xm:f>Data!$A$1:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9E8783D-F5A6-2142-A1A3-4FEE5420CA95}">
+          <x14:formula1>
+            <xm:f>Data!$C$1:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCB497C-4E44-3041-983F-0AB88C91BDB0}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,6 +703,9 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -730,6 +737,27 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:3" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
